--- a/src/main/java/Resources/TestData2.xlsx
+++ b/src/main/java/Resources/TestData2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9DCBD5-B3F2-452C-86E7-070B8E539A4C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106A26F-2E81-4626-A646-CE0EE3ACE754}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="3075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="3075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="143">
-  <si>
-    <t>TestCase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="141">
   <si>
     <t>UserName</t>
   </si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Phone</t>
-  </si>
-  <si>
-    <t>Signup</t>
   </si>
   <si>
     <t>Kaushalk71000</t>
@@ -824,16 +818,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,53 +862,47 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
         <v>1234567890</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E2AB2855-B847-4366-B04C-60C2F5152C5C}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{F8F3785C-1E63-4BD6-9103-0A6C187BC242}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{BC082958-7D01-49DD-B1DD-2708BCEA96B1}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E2AB2855-B847-4366-B04C-60C2F5152C5C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{F8F3785C-1E63-4BD6-9103-0A6C187BC242}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{BC082958-7D01-49DD-B1DD-2708BCEA96B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -923,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541BE4BD-096E-4EFE-ABB7-7AA6B7AF85E6}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,48 +930,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>5000</v>
@@ -991,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H2" s="5">
         <f>IF(G2="No",0)</f>
@@ -1020,10 +1009,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>5000</v>
@@ -1032,13 +1021,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H3" s="5">
         <v>14</v>
@@ -1060,10 +1049,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
         <v>5000</v>
@@ -1072,13 +1061,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2">
         <v>151</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ref="H4:H66" si="2">IF(G4="No",0)</f>
@@ -1101,10 +1090,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3">
         <v>5000</v>
@@ -1113,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2">
         <v>151</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H5" s="5">
         <v>80</v>
@@ -1141,10 +1130,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>30000</v>
@@ -1153,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2">
         <v>35</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="2"/>
@@ -1182,10 +1171,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>30000</v>
@@ -1194,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2">
         <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H7" s="5">
         <v>14</v>
@@ -1222,10 +1211,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>30000</v>
@@ -1234,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2">
         <v>381</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="2"/>
@@ -1263,10 +1252,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>30000</v>
@@ -1275,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2">
         <v>381</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H9" s="5">
         <v>80</v>
@@ -1303,10 +1292,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>50000</v>
@@ -1315,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2">
         <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
@@ -1344,10 +1333,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>50000</v>
@@ -1356,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2">
         <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="5">
         <v>14</v>
@@ -1384,10 +1373,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>50000</v>
@@ -1396,13 +1385,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2">
         <v>529</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
@@ -1425,10 +1414,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>50000</v>
@@ -1437,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2">
         <v>529</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="5">
         <v>80</v>
@@ -1465,10 +1454,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6">
         <v>80000</v>
@@ -1477,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2">
         <v>71</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
@@ -1506,10 +1495,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6">
         <v>80000</v>
@@ -1518,13 +1507,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
         <v>71</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H15" s="5">
         <v>14</v>
@@ -1546,10 +1535,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6">
         <v>80000</v>
@@ -1558,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F16" s="2">
         <v>762</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
@@ -1587,10 +1576,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6">
         <v>80000</v>
@@ -1599,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="2">
         <v>762</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H17" s="5">
         <v>80</v>
@@ -1627,10 +1616,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
         <v>10000</v>
@@ -1639,13 +1628,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2">
         <v>71</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
@@ -1668,10 +1657,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6">
         <v>10000</v>
@@ -1680,13 +1669,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2">
         <v>71</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="5">
         <v>17</v>
@@ -1708,10 +1697,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6">
         <v>10000</v>
@@ -1720,13 +1709,13 @@
         <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2">
         <v>762</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="2"/>
@@ -1749,10 +1738,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6">
         <v>10000</v>
@@ -1761,13 +1750,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2">
         <v>762</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" s="5">
         <v>114</v>
@@ -1789,10 +1778,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6">
         <v>20000</v>
@@ -1801,13 +1790,13 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2">
         <v>139</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="2"/>
@@ -1830,10 +1819,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6">
         <v>20000</v>
@@ -1842,13 +1831,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2">
         <v>139</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H23" s="5">
         <v>28</v>
@@ -1870,10 +1859,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6">
         <v>20000</v>
@@ -1882,13 +1871,13 @@
         <v>4</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2">
         <v>1497</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="2"/>
@@ -1911,10 +1900,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6">
         <v>20000</v>
@@ -1923,13 +1912,13 @@
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2">
         <v>1497</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="5">
         <v>225</v>
@@ -1951,10 +1940,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6">
         <v>80000</v>
@@ -1963,13 +1952,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2">
         <v>167</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="2"/>
@@ -1992,10 +1981,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6">
         <v>80000</v>
@@ -2004,13 +1993,13 @@
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F27" s="2">
         <v>167</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="5">
         <v>33</v>
@@ -2032,10 +2021,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6">
         <v>80000</v>
@@ -2044,13 +2033,13 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2">
         <v>1799</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="2"/>
@@ -2073,10 +2062,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="6">
         <v>80000</v>
@@ -2085,13 +2074,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2">
         <v>1799</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H29" s="5">
         <v>270</v>
@@ -2113,10 +2102,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6">
         <v>160000</v>
@@ -2125,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F30" s="2">
         <v>307</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="2"/>
@@ -2154,10 +2143,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6">
         <v>160000</v>
@@ -2166,13 +2155,13 @@
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" s="2">
         <v>307</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H31" s="5">
         <v>45</v>
@@ -2194,10 +2183,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6">
         <v>160000</v>
@@ -2206,13 +2195,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2">
         <v>3317</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="2"/>
@@ -2235,10 +2224,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6">
         <v>160000</v>
@@ -2247,13 +2236,13 @@
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2">
         <v>3317</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H33" s="5">
         <v>450</v>
@@ -2275,10 +2264,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6">
         <v>240000</v>
@@ -2287,13 +2276,13 @@
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" s="2">
         <v>391</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="2"/>
@@ -2316,10 +2305,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6">
         <v>240000</v>
@@ -2328,13 +2317,13 @@
         <v>4</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F35" s="2">
         <v>391</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H35" s="5">
         <v>50</v>
@@ -2356,10 +2345,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="6">
         <v>240000</v>
@@ -2368,13 +2357,13 @@
         <v>4</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2">
         <v>4218</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="2"/>
@@ -2397,10 +2386,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6">
         <v>240000</v>
@@ -2409,13 +2398,13 @@
         <v>4</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2">
         <v>4218</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H37" s="5">
         <v>500</v>
@@ -2437,10 +2426,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6">
         <v>350000</v>
@@ -2449,13 +2438,13 @@
         <v>5</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2">
         <v>530</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="2"/>
@@ -2478,10 +2467,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="6">
         <v>350000</v>
@@ -2490,13 +2479,13 @@
         <v>5</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2">
         <v>530</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H39" s="5">
         <v>55</v>
@@ -2518,10 +2507,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="6">
         <v>350000</v>
@@ -2530,13 +2519,13 @@
         <v>5</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F40" s="2">
         <v>5727</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="2"/>
@@ -2559,10 +2548,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="6">
         <v>350000</v>
@@ -2571,13 +2560,13 @@
         <v>5</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2">
         <v>5727</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H41" s="5">
         <v>575</v>
@@ -2599,10 +2588,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="6">
         <v>500000</v>
@@ -2611,13 +2600,13 @@
         <v>7</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" s="2">
         <v>741</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="2"/>
@@ -2640,10 +2629,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="6">
         <v>500000</v>
@@ -2652,13 +2641,13 @@
         <v>7</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F43" s="2">
         <v>741</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H43" s="5">
         <v>70</v>
@@ -2680,10 +2669,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="6">
         <v>500000</v>
@@ -2692,13 +2681,13 @@
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" s="2">
         <v>7998</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" si="2"/>
@@ -2721,10 +2710,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C45" s="6">
         <v>500000</v>
@@ -2733,13 +2722,13 @@
         <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F45" s="2">
         <v>7998</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H45" s="5">
         <v>800</v>
@@ -2761,10 +2750,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6">
         <v>750000</v>
@@ -2773,13 +2762,13 @@
         <v>8</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F46" s="2">
         <v>951</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" si="2"/>
@@ -2802,10 +2791,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" s="6">
         <v>750000</v>
@@ -2814,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2">
         <v>951</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H47" s="5">
         <v>90</v>
@@ -2842,10 +2831,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="6">
         <v>750000</v>
@@ -2854,13 +2843,13 @@
         <v>8</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2">
         <v>10269</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="2"/>
@@ -2883,10 +2872,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C49" s="6">
         <v>750000</v>
@@ -2895,13 +2884,13 @@
         <v>8</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2">
         <v>10269</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H49" s="5">
         <v>1025</v>
@@ -2923,10 +2912,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" s="6">
         <v>1000000</v>
@@ -2935,13 +2924,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2">
         <v>1230</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="2"/>
@@ -2964,10 +2953,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="6">
         <v>1000000</v>
@@ -2976,13 +2965,13 @@
         <v>10</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" s="2">
         <v>1230</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H51" s="5">
         <v>110</v>
@@ -3004,10 +2993,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C52" s="6">
         <v>1000000</v>
@@ -3016,13 +3005,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F52" s="2">
         <v>13287</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" si="2"/>
@@ -3045,10 +3034,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="6">
         <v>1000000</v>
@@ -3057,13 +3046,13 @@
         <v>10</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F53" s="2">
         <v>13287</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H53" s="5">
         <v>1325</v>
@@ -3085,10 +3074,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="6">
         <v>10000</v>
@@ -3097,13 +3086,13 @@
         <v>12</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F54" s="2">
         <v>4169</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" si="2"/>
@@ -3126,10 +3115,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="6">
         <v>10000</v>
@@ -3138,13 +3127,13 @@
         <v>12</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F55" s="2">
         <v>4169</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H55" s="5">
         <v>100</v>
@@ -3166,10 +3155,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="6">
         <v>250000</v>
@@ -3178,13 +3167,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F56" s="2">
         <v>655</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H56" s="5">
         <f t="shared" si="2"/>
@@ -3207,10 +3196,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="6">
         <v>250000</v>
@@ -3219,13 +3208,13 @@
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F57" s="2">
         <v>655</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H57" s="5">
         <v>50</v>
@@ -3247,10 +3236,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="6">
         <v>250000</v>
@@ -3259,13 +3248,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2">
         <v>3920</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H58" s="5">
         <f t="shared" si="2"/>
@@ -3288,10 +3277,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="6">
         <v>250000</v>
@@ -3300,13 +3289,13 @@
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2">
         <v>3920</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H59" s="5">
         <v>500</v>
@@ -3328,10 +3317,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="6">
         <v>500000</v>
@@ -3340,13 +3329,13 @@
         <v>5</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F60" s="2">
         <v>698</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H60" s="5">
         <f t="shared" si="2"/>
@@ -3369,10 +3358,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" s="6">
         <v>500000</v>
@@ -3381,13 +3370,13 @@
         <v>5</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F61" s="2">
         <v>698</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H61" s="5">
         <v>70</v>
@@ -3409,10 +3398,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" s="6">
         <v>500000</v>
@@ -3421,13 +3410,13 @@
         <v>5</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="2">
         <v>7543</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H62" s="5">
         <f t="shared" si="2"/>
@@ -3450,10 +3439,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="6">
         <v>500000</v>
@@ -3462,13 +3451,13 @@
         <v>5</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F63" s="2">
         <v>7543</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H63" s="5">
         <v>750</v>
@@ -3490,10 +3479,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="6">
         <v>1000000</v>
@@ -3502,13 +3491,13 @@
         <v>7</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F64" s="2">
         <v>1188</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H64" s="5">
         <f t="shared" si="2"/>
@@ -3531,10 +3520,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="6">
         <v>1000000</v>
@@ -3543,13 +3532,13 @@
         <v>7</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F65" s="2">
         <v>1188</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H65" s="5">
         <v>110</v>
@@ -3571,10 +3560,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C66" s="6">
         <v>1000000</v>
@@ -3583,13 +3572,13 @@
         <v>7</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F66" s="2">
         <v>12834</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H66" s="5">
         <f t="shared" si="2"/>
@@ -3612,10 +3601,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" s="6">
         <v>1000000</v>
@@ -3624,13 +3613,13 @@
         <v>7</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F67" s="2">
         <v>12834</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H67" s="5">
         <v>1285</v>
@@ -3674,30 +3663,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
